--- a/config_12.08/act_030_cwlb_config.xlsx
+++ b/config_12.08/act_030_cwlb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -175,36 +175,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华为P40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>s11kh_icon_sj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_3","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>美的空调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_3","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_1","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_1","prop_12_12_cjq",</t>
   </si>
 </sst>
 </file>
@@ -248,7 +242,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,11 +313,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,13 +639,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="2"/>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>11823</v>
       </c>
       <c r="G2" s="2"/>
@@ -666,7 +666,7 @@
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>11819</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>11820</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>11821</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>11822</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
       <c r="E7">
         <v>12000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>11818</v>
       </c>
     </row>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,17 +795,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>10357</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="10">
+        <v>10396</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -815,17 +815,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>10358</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="10">
+        <v>10397</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -835,17 +835,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>10359</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10">
+        <v>10398</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -855,17 +855,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>10360</v>
+      <c r="B5" s="10">
+        <v>10399</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -875,17 +875,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>10361</v>
+      <c r="B6" s="10">
+        <v>10400</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -895,17 +895,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>10362</v>
+      <c r="B7" s="10">
+        <v>10401</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -915,15 +915,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/act_030_cwlb_config.xlsx
+++ b/config_12.08/act_030_cwlb_config.xlsx
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s11kh_icon_sj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>美的空调</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>"ty_icon_jb_30y","ty_icon_yxb_1","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>s12xylb_iocn_mdkt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="9">
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>31</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>32</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>33</v>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>34</v>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>

--- a/config_12.08/act_030_cwlb_config.xlsx
+++ b/config_12.08/act_030_cwlb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -179,26 +179,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","prop_12_12_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","prop_12_12_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_3","prop_12_12_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","prop_12_12_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yxb_1","prop_12_12_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_1","prop_12_12_cjq",</t>
-  </si>
-  <si>
     <t>s12xylb_iocn_mdkt</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_3","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>31</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>32</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>33</v>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>34</v>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>

--- a/config_12.08/act_030_cwlb_config.xlsx
+++ b/config_12.08/act_030_cwlb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -257,13 +257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,10 +314,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,8 +645,8 @@
         <v>37</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="F2" s="9">
-        <v>11823</v>
+      <c r="F2" s="10">
+        <v>11851</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -666,8 +666,8 @@
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
-        <v>11819</v>
+      <c r="F3" s="10">
+        <v>11852</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,8 +686,8 @@
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="9">
-        <v>11820</v>
+      <c r="F4" s="10">
+        <v>11853</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -706,8 +706,8 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
-        <v>11821</v>
+      <c r="F5" s="10">
+        <v>11854</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -726,8 +726,8 @@
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="9">
-        <v>11822</v>
+      <c r="F6" s="10">
+        <v>11855</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,8 +746,8 @@
       <c r="E7">
         <v>12000</v>
       </c>
-      <c r="F7" s="9">
-        <v>11818</v>
+      <c r="F7" s="10">
+        <v>11856</v>
       </c>
     </row>
   </sheetData>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>10396</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -819,7 +819,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>10397</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -839,7 +839,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>10398</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -859,7 +859,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>10399</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -879,7 +879,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>10400</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -899,7 +899,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>10401</v>
       </c>
       <c r="C7" s="7" t="s">

--- a/config_12.08/act_030_cwlb_config.xlsx
+++ b/config_12.08/act_030_cwlb_config.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J13:J14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="10">
-        <v>11851</v>
+        <v>11856</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="10">
-        <v>11852</v>
+        <v>11855</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>20000</v>
       </c>
       <c r="F4" s="10">
-        <v>11853</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>11854</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>50000</v>
       </c>
       <c r="F6" s="10">
-        <v>11855</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -747,10 +747,13 @@
         <v>12000</v>
       </c>
       <c r="F7" s="10">
-        <v>11856</v>
+        <v>11851</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="F2:F7">
+    <sortCondition descending="1" ref="F7"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/config_12.08/act_030_cwlb_config.xlsx
+++ b/config_12.08/act_030_cwlb_config.xlsx
@@ -179,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s12xylb_iocn_mdkt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
   </si>
   <si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>s12xylb_icon_mdkt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>31</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>32</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>33</v>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>34</v>
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
